--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H2">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I2">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J2">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>676.1849107199572</v>
+        <v>1034.593457781413</v>
       </c>
       <c r="R2">
-        <v>6085.664196479615</v>
+        <v>9311.341120032719</v>
       </c>
       <c r="S2">
-        <v>0.1887562272665738</v>
+        <v>0.3100995971907586</v>
       </c>
       <c r="T2">
-        <v>0.1887562272665738</v>
+        <v>0.3100995971907585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H3">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I3">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J3">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>85.66285440749864</v>
+        <v>94.50968701221019</v>
       </c>
       <c r="R3">
-        <v>770.9656896674878</v>
+        <v>850.5871831098918</v>
       </c>
       <c r="S3">
-        <v>0.02391268565521393</v>
+        <v>0.02832747071101532</v>
       </c>
       <c r="T3">
-        <v>0.02391268565521393</v>
+        <v>0.02832747071101531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H4">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I4">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J4">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>212.3261841230506</v>
+        <v>266.5354346127986</v>
       </c>
       <c r="R4">
-        <v>1910.935657107456</v>
+        <v>2398.818911515188</v>
       </c>
       <c r="S4">
-        <v>0.05927060605700685</v>
+        <v>0.07988889770068049</v>
       </c>
       <c r="T4">
-        <v>0.05927060605700685</v>
+        <v>0.07988889770068047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H5">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I5">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J5">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>492.3070554946132</v>
+        <v>188.0511167705035</v>
       </c>
       <c r="R5">
-        <v>4430.763499451519</v>
+        <v>1692.460050934532</v>
       </c>
       <c r="S5">
-        <v>0.1374269389610269</v>
+        <v>0.05636472483293631</v>
       </c>
       <c r="T5">
-        <v>0.1374269389610269</v>
+        <v>0.05636472483293627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H6">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I6">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J6">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>427.4728892274773</v>
+        <v>604.1239323490137</v>
       </c>
       <c r="R6">
-        <v>3847.256003047296</v>
+        <v>5437.115391141124</v>
       </c>
       <c r="S6">
-        <v>0.1193285572483556</v>
+        <v>0.1810745918270698</v>
       </c>
       <c r="T6">
-        <v>0.1193285572483556</v>
+        <v>0.1810745918270698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.982688</v>
+        <v>16.53002533333333</v>
       </c>
       <c r="H7">
-        <v>44.948064</v>
+        <v>49.590076</v>
       </c>
       <c r="I7">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465919</v>
       </c>
       <c r="J7">
-        <v>0.5953835060803593</v>
+        <v>0.7159674235465918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>238.89940964064</v>
+        <v>200.8873536628671</v>
       </c>
       <c r="R7">
-        <v>2150.09468676576</v>
+        <v>1807.986182965804</v>
       </c>
       <c r="S7">
-        <v>0.06668849089218228</v>
+        <v>0.06021214128413146</v>
       </c>
       <c r="T7">
-        <v>0.06668849089218226</v>
+        <v>0.06021214128413144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H8">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I8">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J8">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>121.5059138318387</v>
+        <v>107.4466741195733</v>
       </c>
       <c r="R8">
-        <v>1093.553224486548</v>
+        <v>967.0200670761601</v>
       </c>
       <c r="S8">
-        <v>0.0339182337876419</v>
+        <v>0.03220508511180437</v>
       </c>
       <c r="T8">
-        <v>0.0339182337876419</v>
+        <v>0.03220508511180437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H9">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I9">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J9">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
-        <v>15.39304299935433</v>
+        <v>9.815209505886221</v>
       </c>
       <c r="R9">
-        <v>138.537386994189</v>
+        <v>88.336885552976</v>
       </c>
       <c r="S9">
-        <v>0.004296949956509158</v>
+        <v>0.00294192128437109</v>
       </c>
       <c r="T9">
-        <v>0.004296949956509157</v>
+        <v>0.002941921284371088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H10">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I10">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J10">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>38.15359766728533</v>
+        <v>27.68077235436267</v>
       </c>
       <c r="R10">
-        <v>343.3823790055679</v>
+        <v>249.126951189264</v>
       </c>
       <c r="S10">
-        <v>0.0106505321815827</v>
+        <v>0.008296781979874568</v>
       </c>
       <c r="T10">
-        <v>0.0106505321815827</v>
+        <v>0.008296781979874565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H11">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I11">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J11">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>88.46429092900667</v>
+        <v>19.52986161809956</v>
       </c>
       <c r="R11">
-        <v>796.1786183610599</v>
+        <v>175.768754562896</v>
       </c>
       <c r="S11">
-        <v>0.02469470338489623</v>
+        <v>0.005853702413652293</v>
       </c>
       <c r="T11">
-        <v>0.02469470338489623</v>
+        <v>0.00585370241365229</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H12">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I12">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J12">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>76.81402412339868</v>
+        <v>62.74068988038578</v>
       </c>
       <c r="R12">
-        <v>691.3262171105881</v>
+        <v>564.666208923472</v>
       </c>
       <c r="S12">
-        <v>0.02144254502700838</v>
+        <v>0.01880532156186177</v>
       </c>
       <c r="T12">
-        <v>0.02144254502700838</v>
+        <v>0.01880532156186177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.692289</v>
+        <v>1.716709333333333</v>
       </c>
       <c r="H13">
-        <v>8.076867</v>
+        <v>5.150128</v>
       </c>
       <c r="I13">
-        <v>0.1069864408977605</v>
+        <v>0.0743560843725096</v>
       </c>
       <c r="J13">
-        <v>0.1069864408977604</v>
+        <v>0.07435608437250958</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>42.92862887367001</v>
+        <v>20.86295622827911</v>
       </c>
       <c r="R13">
-        <v>386.35765986303</v>
+        <v>187.766606054512</v>
       </c>
       <c r="S13">
-        <v>0.01198347656012209</v>
+        <v>0.00625327202094551</v>
       </c>
       <c r="T13">
-        <v>0.01198347656012209</v>
+        <v>0.006253272020945508</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H14">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I14">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J14">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>129.8531630672329</v>
+        <v>0.3340569682933333</v>
       </c>
       <c r="R14">
-        <v>1168.678467605096</v>
+        <v>3.00651271464</v>
       </c>
       <c r="S14">
-        <v>0.03624835865252422</v>
+        <v>0.0001001271857340656</v>
       </c>
       <c r="T14">
-        <v>0.03624835865252422</v>
+        <v>0.0001001271857340655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H15">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I15">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J15">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>16.45051882381977</v>
+        <v>0.03051596671155555</v>
       </c>
       <c r="R15">
-        <v>148.054669414378</v>
+        <v>0.2746437004039999</v>
       </c>
       <c r="S15">
-        <v>0.004592143096561899</v>
+        <v>9.146577251157619E-06</v>
       </c>
       <c r="T15">
-        <v>0.004592143096561899</v>
+        <v>9.146577251157614E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H16">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I16">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J16">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>40.77468481368177</v>
+        <v>0.08606087595066665</v>
       </c>
       <c r="R16">
-        <v>366.9721633231359</v>
+        <v>0.7745478835559999</v>
       </c>
       <c r="S16">
-        <v>0.01138220559405789</v>
+        <v>2.579510122112529E-05</v>
       </c>
       <c r="T16">
-        <v>0.01138220559405789</v>
+        <v>2.579510122112529E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H17">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I17">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J17">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>94.54163697356888</v>
+        <v>0.06071929556488889</v>
       </c>
       <c r="R17">
-        <v>850.8747327621198</v>
+        <v>0.546473660084</v>
       </c>
       <c r="S17">
-        <v>0.02639118742791281</v>
+        <v>1.819944728507729E-05</v>
       </c>
       <c r="T17">
-        <v>0.02639118742791281</v>
+        <v>1.819944728507727E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H18">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I18">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J18">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>82.09101669035289</v>
+        <v>0.1950638753764444</v>
       </c>
       <c r="R18">
-        <v>738.819150213176</v>
+        <v>1.755574878388</v>
       </c>
       <c r="S18">
-        <v>0.02291561133248314</v>
+        <v>5.846666507095175E-05</v>
       </c>
       <c r="T18">
-        <v>0.02291561133248314</v>
+        <v>5.846666507095173E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.877244666666666</v>
+        <v>0.005337333333333333</v>
       </c>
       <c r="H19">
-        <v>8.631734</v>
+        <v>0.016012</v>
       </c>
       <c r="I19">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="J19">
-        <v>0.1143362270836191</v>
+        <v>0.000231176705311523</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>45.87775252734</v>
+        <v>0.06486395194977777</v>
       </c>
       <c r="R19">
-        <v>412.89977274606</v>
+        <v>0.583775567548</v>
       </c>
       <c r="S19">
-        <v>0.01280672098007915</v>
+        <v>1.944172874914555E-05</v>
       </c>
       <c r="T19">
-        <v>0.01280672098007914</v>
+        <v>1.944172874914555E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H20">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I20">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J20">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>208.1692187671289</v>
+        <v>256.7457919268334</v>
       </c>
       <c r="R20">
-        <v>1873.52296890416</v>
+        <v>2310.7121273415</v>
       </c>
       <c r="S20">
-        <v>0.05811019403801313</v>
+        <v>0.07695463958148729</v>
       </c>
       <c r="T20">
-        <v>0.05811019403801313</v>
+        <v>0.07695463958148727</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H21">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I21">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J21">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>26.37203107709778</v>
+        <v>23.45362253569722</v>
       </c>
       <c r="R21">
-        <v>237.34827969388</v>
+        <v>211.082602821275</v>
       </c>
       <c r="S21">
-        <v>0.007361721642338468</v>
+        <v>0.007029774687131671</v>
       </c>
       <c r="T21">
-        <v>0.007361721642338468</v>
+        <v>0.007029774687131667</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H22">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I22">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J22">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>65.36640373361777</v>
+        <v>66.14371154344167</v>
       </c>
       <c r="R22">
-        <v>588.2976336025599</v>
+        <v>595.293403890975</v>
       </c>
       <c r="S22">
-        <v>0.0182469551791748</v>
+        <v>0.0198253122055374</v>
       </c>
       <c r="T22">
-        <v>0.0182469551791748</v>
+        <v>0.01982531220553739</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H23">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I23">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J23">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>151.5608726416889</v>
+        <v>46.66696134103056</v>
       </c>
       <c r="R23">
-        <v>1364.0478537752</v>
+        <v>420.002652069275</v>
       </c>
       <c r="S23">
-        <v>0.04230804040068698</v>
+        <v>0.01398752892271601</v>
       </c>
       <c r="T23">
-        <v>0.04230804040068698</v>
+        <v>0.013987528922716</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.612546666666667</v>
+        <v>4.102108333333334</v>
       </c>
       <c r="H24">
-        <v>13.83764</v>
+        <v>12.306325</v>
       </c>
       <c r="I24">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="J24">
-        <v>0.1832938259382612</v>
+        <v>0.1776752228324275</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>131.6011286023289</v>
+        <v>149.9200253648528</v>
       </c>
       <c r="R24">
-        <v>1184.41015742096</v>
+        <v>1349.280228283675</v>
       </c>
       <c r="S24">
-        <v>0.03673630118801414</v>
+        <v>0.04493565963210595</v>
       </c>
       <c r="T24">
-        <v>0.03673630118801414</v>
+        <v>0.04493565963210594</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.102108333333334</v>
+      </c>
+      <c r="H25">
+        <v>12.306325</v>
+      </c>
+      <c r="I25">
+        <v>0.1776752228324275</v>
+      </c>
+      <c r="J25">
+        <v>0.1776752228324275</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.15287633333333</v>
+      </c>
+      <c r="N25">
+        <v>36.458629</v>
+      </c>
+      <c r="O25">
+        <v>0.08409899571389245</v>
+      </c>
+      <c r="P25">
+        <v>0.08409899571389244</v>
+      </c>
+      <c r="Q25">
+        <v>49.85241528093611</v>
+      </c>
+      <c r="R25">
+        <v>448.6717375284251</v>
+      </c>
+      <c r="S25">
+        <v>0.01494230780344921</v>
+      </c>
+      <c r="T25">
+        <v>0.0149423078034492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.200493</v>
+      </c>
+      <c r="I26">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J26">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>62.58874</v>
+      </c>
+      <c r="N26">
+        <v>187.76622</v>
+      </c>
+      <c r="O26">
+        <v>0.4331197020873656</v>
+      </c>
+      <c r="P26">
+        <v>0.4331197020873655</v>
+      </c>
+      <c r="Q26">
+        <v>45.90869474960667</v>
+      </c>
+      <c r="R26">
+        <v>413.17825274646</v>
+      </c>
+      <c r="S26">
+        <v>0.01376025301758126</v>
+      </c>
+      <c r="T26">
+        <v>0.01376025301758126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H27">
+        <v>2.200493</v>
+      </c>
+      <c r="I27">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J27">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N27">
+        <v>17.152367</v>
+      </c>
+      <c r="O27">
+        <v>0.03956530671562308</v>
+      </c>
+      <c r="P27">
+        <v>0.03956530671562306</v>
+      </c>
+      <c r="Q27">
+        <v>4.193740390770111</v>
+      </c>
+      <c r="R27">
+        <v>37.74366351693099</v>
+      </c>
+      <c r="S27">
+        <v>0.001256993455853834</v>
+      </c>
+      <c r="T27">
+        <v>0.001256993455853833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H28">
+        <v>2.200493</v>
+      </c>
+      <c r="I28">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J28">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.124321</v>
+      </c>
+      <c r="N28">
+        <v>48.372963</v>
+      </c>
+      <c r="O28">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="P28">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="Q28">
+        <v>11.82715183008433</v>
+      </c>
+      <c r="R28">
+        <v>106.444366470759</v>
+      </c>
+      <c r="S28">
+        <v>0.003544962507580419</v>
+      </c>
+      <c r="T28">
+        <v>0.003544962507580417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H29">
+        <v>2.200493</v>
+      </c>
+      <c r="I29">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J29">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.37633566666667</v>
+      </c>
+      <c r="N29">
+        <v>34.129007</v>
+      </c>
+      <c r="O29">
+        <v>0.07872526455705194</v>
+      </c>
+      <c r="P29">
+        <v>0.07872526455705191</v>
+      </c>
+      <c r="Q29">
+        <v>8.344515666716777</v>
+      </c>
+      <c r="R29">
+        <v>75.10064100045099</v>
+      </c>
+      <c r="S29">
+        <v>0.002501108940462252</v>
+      </c>
+      <c r="T29">
+        <v>0.00250110894046225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.612546666666667</v>
-      </c>
-      <c r="H25">
-        <v>13.83764</v>
-      </c>
-      <c r="I25">
-        <v>0.1832938259382612</v>
-      </c>
-      <c r="J25">
-        <v>0.1832938259382612</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.94503</v>
-      </c>
-      <c r="N25">
-        <v>47.83509</v>
-      </c>
-      <c r="O25">
-        <v>0.1120093019224172</v>
-      </c>
-      <c r="P25">
-        <v>0.1120093019224172</v>
-      </c>
-      <c r="Q25">
-        <v>73.54719497640001</v>
-      </c>
-      <c r="R25">
-        <v>661.9247547876</v>
-      </c>
-      <c r="S25">
-        <v>0.02053061349003368</v>
-      </c>
-      <c r="T25">
-        <v>0.02053061349003368</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H30">
+        <v>2.200493</v>
+      </c>
+      <c r="I30">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J30">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>36.54706633333333</v>
+      </c>
+      <c r="N30">
+        <v>109.641199</v>
+      </c>
+      <c r="O30">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="P30">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="Q30">
+        <v>26.80718787901189</v>
+      </c>
+      <c r="R30">
+        <v>241.264690911107</v>
+      </c>
+      <c r="S30">
+        <v>0.008034941745064566</v>
+      </c>
+      <c r="T30">
+        <v>0.008034941745064564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7334976666666666</v>
+      </c>
+      <c r="H31">
+        <v>2.200493</v>
+      </c>
+      <c r="I31">
+        <v>0.03177009254315946</v>
+      </c>
+      <c r="J31">
+        <v>0.03177009254315945</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.15287633333333</v>
+      </c>
+      <c r="N31">
+        <v>36.458629</v>
+      </c>
+      <c r="O31">
+        <v>0.08409899571389245</v>
+      </c>
+      <c r="P31">
+        <v>0.08409899571389244</v>
+      </c>
+      <c r="Q31">
+        <v>8.914106433788556</v>
+      </c>
+      <c r="R31">
+        <v>80.22695790409699</v>
+      </c>
+      <c r="S31">
+        <v>0.002671832876617134</v>
+      </c>
+      <c r="T31">
+        <v>0.002671832876617133</v>
       </c>
     </row>
   </sheetData>
